--- a/storage/app/reportes/REPORTE_NOTA.xlsx
+++ b/storage/app/reportes/REPORTE_NOTA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tecnimotors-backend\storage\app\reportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB286A6E-E348-49A4-B3E7-7BD523757D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218A1257-8350-465F-96C6-C088A0A829F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{704505B5-6DA6-449A-B762-1600063E7FE8}"/>
   </bookViews>
@@ -137,7 +137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -175,12 +175,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF274481"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF274481"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF274481"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF274481"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF274481"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF274481"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -204,6 +230,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -535,7 +567,7 @@
   <dimension ref="A2:H6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -566,7 +598,8 @@
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -603,8 +636,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
